--- a/info/statistics-74papers.xlsx
+++ b/info/statistics-74papers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QiuJi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygit\IncOntologyBenchmark\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="266">
   <si>
     <t>注入不交公理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1030,10 +1030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sik Chun Lam, Jeff Z. Pan, Derek H. Sleeman, and Wamberto Weber Vasconcelos. A Fine-Grained Approach to Resolving Unsatisfiable Ontologies. In Proceedings of 2006 IEEE/WIC/ACM International Conference on Web Intelligence (WI), pages 428–434. IEEE Computer Society, 2006.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jens Lehmann and Lorenz Buhmann. ORE - A tool for repairing and enriching knowledge bases. In Proceedings of the 9th International Semantic Web Conference (ISWC), pages 177–193. Springer, 2010.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,6 +1136,13 @@
   <si>
     <t>Lambrix19-ArXiv</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lam08-JoDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey Sik Chun Lam, Derek H. Sleeman, Jeff Z. Pan, Wamberto Weber Vasconcelos: A Fine-Grained Approach to Resolving Unsatisfiable Ontologies. J. Data Semant. 10: 62-95 (2008)</t>
   </si>
 </sst>
 </file>
@@ -2003,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2068,7 +2071,7 @@
         <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2269,16 +2272,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>162</v>
+        <v>264</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>174</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2292,7 +2295,7 @@
         <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2306,7 +2309,7 @@
         <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2320,7 +2323,7 @@
         <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2334,7 +2337,7 @@
         <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2348,7 +2351,7 @@
         <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2362,7 +2365,7 @@
         <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2376,7 +2379,7 @@
         <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2390,7 +2393,7 @@
         <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2404,7 +2407,7 @@
         <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2418,7 +2421,7 @@
         <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2432,7 +2435,7 @@
         <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2446,7 +2449,7 @@
         <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2460,7 +2463,7 @@
         <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2474,7 +2477,7 @@
         <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2488,7 +2491,7 @@
         <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2502,7 +2505,7 @@
         <v>186</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2516,7 +2519,7 @@
         <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2530,7 +2533,7 @@
         <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2544,7 +2547,7 @@
         <v>186</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2558,7 +2561,7 @@
         <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2572,7 +2575,7 @@
         <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2586,7 +2589,7 @@
         <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2600,7 +2603,7 @@
         <v>186</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2614,7 +2617,7 @@
         <v>184</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2628,7 +2631,7 @@
         <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2857,7 +2860,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>163</v>
@@ -2999,8 +3002,8 @@
       <c r="A72" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="54" t="s">
-        <v>173</v>
+      <c r="B72" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C72" s="58" t="s">
         <v>187</v>
